--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_ynyn_gen_pf_sc_results_1_bus_resonant.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_ynyn_gen_pf_sc_results_1_bus_resonant.xlsx
@@ -752,22 +752,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.046595068049951</v>
+        <v>1.04659506805</v>
       </c>
       <c r="O2">
-        <v>0.8909260930523819</v>
+        <v>0.8909260930523274</v>
       </c>
       <c r="P2">
-        <v>1.056652021165216</v>
+        <v>1.056652021165258</v>
       </c>
       <c r="Q2">
-        <v>25.1885020403398</v>
+        <v>25.18850204033653</v>
       </c>
       <c r="R2">
-        <v>-89.28600430314906</v>
+        <v>-89.28600430314991</v>
       </c>
       <c r="S2">
-        <v>155.0677071882993</v>
+        <v>155.0677071883017</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -778,55 +778,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.759944874248877</v>
+        <v>4.759944874248717</v>
       </c>
       <c r="D3">
-        <v>4.759944874248877</v>
+        <v>4.759944874248717</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>54.96310908950737</v>
+        <v>54.96310908950552</v>
       </c>
       <c r="G3">
-        <v>54.96310908950737</v>
+        <v>54.96310908950552</v>
       </c>
       <c r="H3">
-        <v>0.04239312320552924</v>
+        <v>5.852099171775197</v>
       </c>
       <c r="I3">
-        <v>0.892043986427</v>
+        <v>-775.3659126368779</v>
       </c>
       <c r="J3">
-        <v>0.1077319054063861</v>
+        <v>0.1077319054466534</v>
       </c>
       <c r="K3">
-        <v>2.308438694631209</v>
+        <v>2.308438694707467</v>
       </c>
       <c r="L3">
-        <v>0.1077319054131873</v>
+        <v>0.1077319054074683</v>
       </c>
       <c r="M3">
-        <v>2.308438694642881</v>
+        <v>2.308438694652887</v>
       </c>
       <c r="N3">
-        <v>0.9526279648020818</v>
+        <v>0.9526279648021448</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9526279648025192</v>
+        <v>0.9526279648025828</v>
       </c>
       <c r="Q3">
-        <v>-3.96298353817495E-12</v>
+        <v>-5.119148101385719E-12</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.9999999999899</v>
+        <v>-179.9999999999895</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9526279647753109</v>
+        <v>0.9526279647753736</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526279648292907</v>
+        <v>0.9526279648293545</v>
       </c>
       <c r="Q4">
-        <v>1.415160203437286E-09</v>
+        <v>1.413988201231558E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999999985764</v>
+        <v>179.9999999985768</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -929,22 +929,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526279647663871</v>
+        <v>0.9526279647664497</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279648382145</v>
+        <v>0.9526279648382783</v>
       </c>
       <c r="Q5">
-        <v>1.888202904004318E-09</v>
+        <v>1.887018729033647E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999981034</v>
+        <v>179.9999999981038</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.952627964766387</v>
+        <v>0.9526279647664497</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526279648382145</v>
+        <v>0.9526279648382783</v>
       </c>
       <c r="Q6">
-        <v>1.888209217495527E-09</v>
+        <v>1.88702122829016E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999981034</v>
+        <v>179.9999999981038</v>
       </c>
     </row>
   </sheetData>
@@ -1119,22 +1119,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.095305273568648</v>
+        <v>1.095305273568645</v>
       </c>
       <c r="O2">
-        <v>1.018983908531544</v>
+        <v>1.018983908531511</v>
       </c>
       <c r="P2">
         <v>1.06511527042063</v>
       </c>
       <c r="Q2">
-        <v>27.70356907604972</v>
+        <v>27.70356907604879</v>
       </c>
       <c r="R2">
-        <v>-91.92524130249696</v>
+        <v>-91.92524130249684</v>
       </c>
       <c r="S2">
-        <v>151.4402860785753</v>
+        <v>151.4402860785763</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1145,55 +1145,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.010953897753578</v>
+        <v>2.010953897753558</v>
       </c>
       <c r="D3">
-        <v>2.010953897753578</v>
+        <v>2.010953897753558</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>23.22049548391911</v>
+        <v>23.22049548391888</v>
       </c>
       <c r="G3">
-        <v>23.22049548391911</v>
+        <v>23.22049548391888</v>
       </c>
       <c r="H3">
-        <v>0.04239312320552924</v>
+        <v>5.852099171775197</v>
       </c>
       <c r="I3">
-        <v>0.892043986427</v>
+        <v>-775.3659126368779</v>
       </c>
       <c r="J3">
-        <v>0.1077319054063861</v>
+        <v>0.1077319054466534</v>
       </c>
       <c r="K3">
-        <v>2.308438694631209</v>
+        <v>2.308438694707467</v>
       </c>
       <c r="L3">
-        <v>0.1077319054131873</v>
+        <v>0.1077319054074683</v>
       </c>
       <c r="M3">
-        <v>2.308438694642881</v>
+        <v>2.308438694652887</v>
       </c>
       <c r="N3">
-        <v>1.107498627573925</v>
+        <v>1.107498627573921</v>
       </c>
       <c r="O3">
-        <v>0.7109795688765318</v>
+        <v>0.7109795688764986</v>
       </c>
       <c r="P3">
-        <v>0.91716565693814</v>
+        <v>0.9171656569381444</v>
       </c>
       <c r="Q3">
-        <v>17.92198046293679</v>
+        <v>17.92198046293591</v>
       </c>
       <c r="R3">
         <v>-106.5279586928746</v>
       </c>
       <c r="S3">
-        <v>158.1868465769574</v>
+        <v>158.1868465769585</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1237,22 +1237,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.107498627561355</v>
+        <v>1.107498627561352</v>
       </c>
       <c r="O4">
-        <v>0.7109795688760389</v>
+        <v>0.7109795688760058</v>
       </c>
       <c r="P4">
-        <v>0.9171656569531272</v>
+        <v>0.9171656569531317</v>
       </c>
       <c r="Q4">
-        <v>17.92198046336743</v>
+        <v>17.92198046336655</v>
       </c>
       <c r="R4">
-        <v>-106.527958690445</v>
+        <v>-106.5279586904451</v>
       </c>
       <c r="S4">
-        <v>158.1868465770595</v>
+        <v>158.1868465770605</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1296,22 +1296,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.107498627557165</v>
+        <v>1.107498627557162</v>
       </c>
       <c r="O5">
-        <v>0.7109795688758744</v>
+        <v>0.7109795688758412</v>
       </c>
       <c r="P5">
-        <v>0.9171656569581229</v>
+        <v>0.9171656569581276</v>
       </c>
       <c r="Q5">
-        <v>17.92198046351097</v>
+        <v>17.92198046351009</v>
       </c>
       <c r="R5">
-        <v>-106.5279586896352</v>
+        <v>-106.5279586896353</v>
       </c>
       <c r="S5">
-        <v>158.1868465770935</v>
+        <v>158.1868465770946</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1355,22 +1355,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.107498627557165</v>
+        <v>1.107498627557162</v>
       </c>
       <c r="O6">
-        <v>0.7109795688758744</v>
+        <v>0.7109795688758414</v>
       </c>
       <c r="P6">
-        <v>0.9171656569581229</v>
+        <v>0.9171656569581276</v>
       </c>
       <c r="Q6">
-        <v>17.92198046351097</v>
+        <v>17.92198046351009</v>
       </c>
       <c r="R6">
-        <v>-106.5279586896352</v>
+        <v>-106.5279586896353</v>
       </c>
       <c r="S6">
-        <v>158.1868465770935</v>
+        <v>158.1868465770946</v>
       </c>
     </row>
   </sheetData>
@@ -1486,22 +1486,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.095305273568648</v>
+        <v>1.095305273568645</v>
       </c>
       <c r="O2">
-        <v>1.018983908531544</v>
+        <v>1.018983908531511</v>
       </c>
       <c r="P2">
         <v>1.06511527042063</v>
       </c>
       <c r="Q2">
-        <v>27.70356907604972</v>
+        <v>27.70356907604879</v>
       </c>
       <c r="R2">
-        <v>-91.92524130249696</v>
+        <v>-91.92524130249684</v>
       </c>
       <c r="S2">
-        <v>151.4402860785753</v>
+        <v>151.4402860785763</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1512,55 +1512,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.010953897753578</v>
+        <v>2.010953897753558</v>
       </c>
       <c r="D3">
-        <v>2.010953897753578</v>
+        <v>2.010953897753558</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>23.22049548391911</v>
+        <v>23.22049548391888</v>
       </c>
       <c r="G3">
-        <v>23.22049548391911</v>
+        <v>23.22049548391888</v>
       </c>
       <c r="H3">
-        <v>0.04239312320552924</v>
+        <v>5.852099171775197</v>
       </c>
       <c r="I3">
-        <v>0.892043986427</v>
+        <v>-775.3659126368779</v>
       </c>
       <c r="J3">
-        <v>0.1077319054063861</v>
+        <v>0.1077319054466534</v>
       </c>
       <c r="K3">
-        <v>2.308438694631209</v>
+        <v>2.308438694707467</v>
       </c>
       <c r="L3">
-        <v>0.1077319054131873</v>
+        <v>0.1077319054074683</v>
       </c>
       <c r="M3">
-        <v>2.308438694642881</v>
+        <v>2.308438694652887</v>
       </c>
       <c r="N3">
-        <v>1.107498627573925</v>
+        <v>1.107498627573921</v>
       </c>
       <c r="O3">
-        <v>0.7109795688765318</v>
+        <v>0.7109795688764986</v>
       </c>
       <c r="P3">
-        <v>0.91716565693814</v>
+        <v>0.9171656569381444</v>
       </c>
       <c r="Q3">
-        <v>17.92198046293679</v>
+        <v>17.92198046293591</v>
       </c>
       <c r="R3">
         <v>-106.5279586928746</v>
       </c>
       <c r="S3">
-        <v>158.1868465769574</v>
+        <v>158.1868465769585</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1604,22 +1604,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.107498627561355</v>
+        <v>1.107498627561352</v>
       </c>
       <c r="O4">
-        <v>0.7109795688760389</v>
+        <v>0.7109795688760058</v>
       </c>
       <c r="P4">
-        <v>0.9171656569531272</v>
+        <v>0.9171656569531317</v>
       </c>
       <c r="Q4">
-        <v>17.92198046336743</v>
+        <v>17.92198046336655</v>
       </c>
       <c r="R4">
-        <v>-106.527958690445</v>
+        <v>-106.5279586904451</v>
       </c>
       <c r="S4">
-        <v>158.1868465770595</v>
+        <v>158.1868465770605</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1663,22 +1663,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.107498627557165</v>
+        <v>1.107498627557162</v>
       </c>
       <c r="O5">
-        <v>0.7109795688758744</v>
+        <v>0.7109795688758412</v>
       </c>
       <c r="P5">
-        <v>0.9171656569581229</v>
+        <v>0.9171656569581276</v>
       </c>
       <c r="Q5">
-        <v>17.92198046351097</v>
+        <v>17.92198046351009</v>
       </c>
       <c r="R5">
-        <v>-106.5279586896352</v>
+        <v>-106.5279586896353</v>
       </c>
       <c r="S5">
-        <v>158.1868465770935</v>
+        <v>158.1868465770946</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1722,22 +1722,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.107498627557165</v>
+        <v>1.107498627557162</v>
       </c>
       <c r="O6">
-        <v>0.7109795688758744</v>
+        <v>0.7109795688758414</v>
       </c>
       <c r="P6">
-        <v>0.9171656569581229</v>
+        <v>0.9171656569581276</v>
       </c>
       <c r="Q6">
-        <v>17.92198046351097</v>
+        <v>17.92198046351009</v>
       </c>
       <c r="R6">
-        <v>-106.5279586896352</v>
+        <v>-106.5279586896353</v>
       </c>
       <c r="S6">
-        <v>158.1868465770935</v>
+        <v>158.1868465770946</v>
       </c>
     </row>
   </sheetData>
@@ -1853,22 +1853,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9477232070952268</v>
+        <v>0.9477232070952003</v>
       </c>
       <c r="O2">
-        <v>0.7936674232739477</v>
+        <v>0.7936674232738951</v>
       </c>
       <c r="P2">
-        <v>0.9574835309888192</v>
+        <v>0.9574835309887947</v>
       </c>
       <c r="Q2">
-        <v>24.75158797610128</v>
+        <v>24.75158797610183</v>
       </c>
       <c r="R2">
-        <v>-89.22492623897119</v>
+        <v>-89.22492623896942</v>
       </c>
       <c r="S2">
-        <v>155.5173957043593</v>
+        <v>155.517395704362</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1879,55 +1879,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.133684588661922</v>
+        <v>4.13368458866171</v>
       </c>
       <c r="D3">
-        <v>4.133684588661922</v>
+        <v>4.13368458866171</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>47.73167820017936</v>
+        <v>47.73167820017692</v>
       </c>
       <c r="G3">
-        <v>47.73167820017936</v>
+        <v>47.73167820017692</v>
       </c>
       <c r="H3">
-        <v>0.04805503825641658</v>
+        <v>11.23203953398521</v>
       </c>
       <c r="I3">
-        <v>0.9614893340931525</v>
+        <v>-775.3427828698191</v>
       </c>
       <c r="J3">
-        <v>0.115351859494996</v>
+        <v>0.115351859519944</v>
       </c>
       <c r="K3">
-        <v>2.416397540717266</v>
+        <v>2.416397540768824</v>
       </c>
       <c r="L3">
-        <v>0.1153518594710898</v>
+        <v>0.1153518594657646</v>
       </c>
       <c r="M3">
-        <v>2.416397540675748</v>
+        <v>2.416397540684781</v>
       </c>
       <c r="N3">
-        <v>0.8660254037841222</v>
+        <v>0.8660254037841056</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8660254037841821</v>
+        <v>0.8660254037841661</v>
       </c>
       <c r="Q3">
-        <v>3.070924361306929E-11</v>
+        <v>3.1911028606061E-11</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>179.9999999999606</v>
+        <v>179.9999999999626</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1971,22 +1971,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660254037597845</v>
+        <v>0.8660254037597682</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254038085196</v>
+        <v>0.8660254038085035</v>
       </c>
       <c r="Q4">
-        <v>2.755402604210682E-09</v>
+        <v>2.756609654238021E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999999972359</v>
+        <v>179.9999999972379</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2030,22 +2030,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660254037516718</v>
+        <v>0.8660254037516556</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254038166321</v>
+        <v>0.8660254038166157</v>
       </c>
       <c r="Q5">
-        <v>3.663635556993977E-09</v>
+        <v>3.664842692808561E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999963277</v>
+        <v>179.9999999963297</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2089,22 +2089,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660254037516719</v>
+        <v>0.8660254037516556</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8660254038166321</v>
+        <v>0.8660254038166157</v>
       </c>
       <c r="Q6">
-        <v>3.663634505261348E-09</v>
+        <v>3.664846793858277E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999963276</v>
+        <v>179.9999999963297</v>
       </c>
     </row>
   </sheetData>
@@ -2220,22 +2220,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9477232070952268</v>
+        <v>0.9477232070952003</v>
       </c>
       <c r="O2">
-        <v>0.7936674232739477</v>
+        <v>0.7936674232738951</v>
       </c>
       <c r="P2">
-        <v>0.9574835309888192</v>
+        <v>0.9574835309887947</v>
       </c>
       <c r="Q2">
-        <v>24.75158797610128</v>
+        <v>24.75158797610183</v>
       </c>
       <c r="R2">
-        <v>-89.22492623897119</v>
+        <v>-89.22492623896942</v>
       </c>
       <c r="S2">
-        <v>155.5173957043593</v>
+        <v>155.517395704362</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2246,55 +2246,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.133684588661922</v>
+        <v>4.13368458866171</v>
       </c>
       <c r="D3">
-        <v>4.133684588661922</v>
+        <v>4.13368458866171</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>47.73167820017936</v>
+        <v>47.73167820017692</v>
       </c>
       <c r="G3">
-        <v>47.73167820017936</v>
+        <v>47.73167820017692</v>
       </c>
       <c r="H3">
-        <v>0.04805503825641658</v>
+        <v>11.23203953398521</v>
       </c>
       <c r="I3">
-        <v>0.9614893340931525</v>
+        <v>-775.3427828698191</v>
       </c>
       <c r="J3">
-        <v>0.115351859494996</v>
+        <v>0.115351859519944</v>
       </c>
       <c r="K3">
-        <v>2.416397540717266</v>
+        <v>2.416397540768824</v>
       </c>
       <c r="L3">
-        <v>0.1153518594710898</v>
+        <v>0.1153518594657646</v>
       </c>
       <c r="M3">
-        <v>2.416397540675748</v>
+        <v>2.416397540684781</v>
       </c>
       <c r="N3">
-        <v>0.8660254037841222</v>
+        <v>0.8660254037841056</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8660254037841821</v>
+        <v>0.8660254037841661</v>
       </c>
       <c r="Q3">
-        <v>3.070924361306929E-11</v>
+        <v>3.1911028606061E-11</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>179.9999999999606</v>
+        <v>179.9999999999626</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2338,22 +2338,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660254037597845</v>
+        <v>0.8660254037597682</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254038085196</v>
+        <v>0.8660254038085035</v>
       </c>
       <c r="Q4">
-        <v>2.755402604210682E-09</v>
+        <v>2.756609654238021E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999999972359</v>
+        <v>179.9999999972379</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2397,22 +2397,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8660254037516718</v>
+        <v>0.8660254037516556</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254038166321</v>
+        <v>0.8660254038166157</v>
       </c>
       <c r="Q5">
-        <v>3.663635556993977E-09</v>
+        <v>3.664842692808561E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999963277</v>
+        <v>179.9999999963297</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2456,22 +2456,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8660254037516719</v>
+        <v>0.8660254037516556</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8660254038166321</v>
+        <v>0.8660254038166157</v>
       </c>
       <c r="Q6">
-        <v>3.663634505261348E-09</v>
+        <v>3.664846793858277E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999963276</v>
+        <v>179.9999999963297</v>
       </c>
     </row>
   </sheetData>
@@ -2587,22 +2587,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9949806626618444</v>
+        <v>0.9949806626618236</v>
       </c>
       <c r="O2">
-        <v>0.9175617791399003</v>
+        <v>0.9175617791398677</v>
       </c>
       <c r="P2">
-        <v>0.9648695716021194</v>
+        <v>0.9648695716021131</v>
       </c>
       <c r="Q2">
-        <v>27.43727595412386</v>
+        <v>27.43727595412438</v>
       </c>
       <c r="R2">
-        <v>-92.12802105335017</v>
+        <v>-92.12802105334826</v>
       </c>
       <c r="S2">
-        <v>151.6304298035849</v>
+        <v>151.6304298035867</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2613,55 +2613,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.79573357821068</v>
+        <v>1.795733578210634</v>
       </c>
       <c r="D3">
-        <v>1.79573357821068</v>
+        <v>1.795733578210634</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>20.73534529545572</v>
+        <v>20.73534529545519</v>
       </c>
       <c r="G3">
-        <v>20.73534529545572</v>
+        <v>20.73534529545519</v>
       </c>
       <c r="H3">
-        <v>0.04805503825641658</v>
+        <v>11.23203953398521</v>
       </c>
       <c r="I3">
-        <v>0.9614893340931525</v>
+        <v>-775.3427828698191</v>
       </c>
       <c r="J3">
-        <v>0.115351859494996</v>
+        <v>0.115351859519944</v>
       </c>
       <c r="K3">
-        <v>2.416397540717266</v>
+        <v>2.416397540768824</v>
       </c>
       <c r="L3">
-        <v>0.1153518594710898</v>
+        <v>0.1153518594657646</v>
       </c>
       <c r="M3">
-        <v>2.416397540675748</v>
+        <v>2.416397540684781</v>
       </c>
       <c r="N3">
-        <v>1.005693895264114</v>
+        <v>1.005693895264092</v>
       </c>
       <c r="O3">
-        <v>0.6348876951823897</v>
+        <v>0.6348876951823575</v>
       </c>
       <c r="P3">
-        <v>0.8307352055776828</v>
+        <v>0.8307352055776827</v>
       </c>
       <c r="Q3">
-        <v>17.57011779536513</v>
+        <v>17.57011779536571</v>
       </c>
       <c r="R3">
-        <v>-106.9885815758096</v>
+        <v>-106.9885815758073</v>
       </c>
       <c r="S3">
-        <v>158.5647675412735</v>
+        <v>158.5647675412754</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2705,22 +2705,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.005693895251238</v>
+        <v>1.005693895251216</v>
       </c>
       <c r="O4">
-        <v>0.6348876951946469</v>
+        <v>0.634887695194615</v>
       </c>
       <c r="P4">
-        <v>0.8307352055979551</v>
+        <v>0.8307352055979549</v>
       </c>
       <c r="Q4">
-        <v>17.5701177962944</v>
+        <v>17.57011779629498</v>
       </c>
       <c r="R4">
-        <v>-106.9885815722256</v>
+        <v>-106.9885815722233</v>
       </c>
       <c r="S4">
-        <v>158.5647675409582</v>
+        <v>158.5647675409601</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2764,22 +2764,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.005693895246945</v>
+        <v>1.005693895246923</v>
       </c>
       <c r="O5">
-        <v>0.6348876951987327</v>
+        <v>0.6348876951987007</v>
       </c>
       <c r="P5">
-        <v>0.8307352056047127</v>
+        <v>0.8307352056047125</v>
       </c>
       <c r="Q5">
-        <v>17.57011779660415</v>
+        <v>17.57011779660473</v>
       </c>
       <c r="R5">
-        <v>-106.9885815710309</v>
+        <v>-106.9885815710286</v>
       </c>
       <c r="S5">
-        <v>158.5647675408531</v>
+        <v>158.564767540855</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2823,22 +2823,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.005693895246945</v>
+        <v>1.005693895246923</v>
       </c>
       <c r="O6">
-        <v>0.6348876951987327</v>
+        <v>0.6348876951987007</v>
       </c>
       <c r="P6">
-        <v>0.8307352056047127</v>
+        <v>0.8307352056047125</v>
       </c>
       <c r="Q6">
-        <v>17.57011779660415</v>
+        <v>17.57011779660473</v>
       </c>
       <c r="R6">
-        <v>-106.9885815710309</v>
+        <v>-106.9885815710286</v>
       </c>
       <c r="S6">
-        <v>158.5647675408531</v>
+        <v>158.564767540855</v>
       </c>
     </row>
   </sheetData>
@@ -2954,22 +2954,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9949806626618444</v>
+        <v>0.9949806626618236</v>
       </c>
       <c r="O2">
-        <v>0.9175617791399003</v>
+        <v>0.9175617791398677</v>
       </c>
       <c r="P2">
-        <v>0.9648695716021194</v>
+        <v>0.9648695716021131</v>
       </c>
       <c r="Q2">
-        <v>27.43727595412386</v>
+        <v>27.43727595412438</v>
       </c>
       <c r="R2">
-        <v>-92.12802105335017</v>
+        <v>-92.12802105334826</v>
       </c>
       <c r="S2">
-        <v>151.6304298035849</v>
+        <v>151.6304298035867</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2980,55 +2980,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.79573357821068</v>
+        <v>1.795733578210634</v>
       </c>
       <c r="D3">
-        <v>1.79573357821068</v>
+        <v>1.795733578210634</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>20.73534529545572</v>
+        <v>20.73534529545519</v>
       </c>
       <c r="G3">
-        <v>20.73534529545572</v>
+        <v>20.73534529545519</v>
       </c>
       <c r="H3">
-        <v>0.04805503825641658</v>
+        <v>11.23203953398521</v>
       </c>
       <c r="I3">
-        <v>0.9614893340931525</v>
+        <v>-775.3427828698191</v>
       </c>
       <c r="J3">
-        <v>0.115351859494996</v>
+        <v>0.115351859519944</v>
       </c>
       <c r="K3">
-        <v>2.416397540717266</v>
+        <v>2.416397540768824</v>
       </c>
       <c r="L3">
-        <v>0.1153518594710898</v>
+        <v>0.1153518594657646</v>
       </c>
       <c r="M3">
-        <v>2.416397540675748</v>
+        <v>2.416397540684781</v>
       </c>
       <c r="N3">
-        <v>1.005693895264114</v>
+        <v>1.005693895264092</v>
       </c>
       <c r="O3">
-        <v>0.6348876951823897</v>
+        <v>0.6348876951823575</v>
       </c>
       <c r="P3">
-        <v>0.8307352055776828</v>
+        <v>0.8307352055776827</v>
       </c>
       <c r="Q3">
-        <v>17.57011779536513</v>
+        <v>17.57011779536571</v>
       </c>
       <c r="R3">
-        <v>-106.9885815758096</v>
+        <v>-106.9885815758073</v>
       </c>
       <c r="S3">
-        <v>158.5647675412735</v>
+        <v>158.5647675412754</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -3072,22 +3072,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.005693895251238</v>
+        <v>1.005693895251216</v>
       </c>
       <c r="O4">
-        <v>0.6348876951946469</v>
+        <v>0.634887695194615</v>
       </c>
       <c r="P4">
-        <v>0.8307352055979551</v>
+        <v>0.8307352055979549</v>
       </c>
       <c r="Q4">
-        <v>17.5701177962944</v>
+        <v>17.57011779629498</v>
       </c>
       <c r="R4">
-        <v>-106.9885815722256</v>
+        <v>-106.9885815722233</v>
       </c>
       <c r="S4">
-        <v>158.5647675409582</v>
+        <v>158.5647675409601</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3131,22 +3131,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.005693895246945</v>
+        <v>1.005693895246923</v>
       </c>
       <c r="O5">
-        <v>0.6348876951987327</v>
+        <v>0.6348876951987007</v>
       </c>
       <c r="P5">
-        <v>0.8307352056047127</v>
+        <v>0.8307352056047125</v>
       </c>
       <c r="Q5">
-        <v>17.57011779660415</v>
+        <v>17.57011779660473</v>
       </c>
       <c r="R5">
-        <v>-106.9885815710309</v>
+        <v>-106.9885815710286</v>
       </c>
       <c r="S5">
-        <v>158.5647675408531</v>
+        <v>158.564767540855</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3190,22 +3190,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.005693895246945</v>
+        <v>1.005693895246923</v>
       </c>
       <c r="O6">
-        <v>0.6348876951987327</v>
+        <v>0.6348876951987007</v>
       </c>
       <c r="P6">
-        <v>0.8307352056047127</v>
+        <v>0.8307352056047125</v>
       </c>
       <c r="Q6">
-        <v>17.57011779660415</v>
+        <v>17.57011779660473</v>
       </c>
       <c r="R6">
-        <v>-106.9885815710309</v>
+        <v>-106.9885815710286</v>
       </c>
       <c r="S6">
-        <v>158.5647675408531</v>
+        <v>158.564767540855</v>
       </c>
     </row>
   </sheetData>
@@ -3324,22 +3324,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.976083563742621</v>
+        <v>1.100878311776469</v>
       </c>
       <c r="O2">
-        <v>1.100000023851786</v>
+        <v>1.100000023841831</v>
       </c>
       <c r="P2">
-        <v>0.9669840901595244</v>
+        <v>1.100994951286461</v>
       </c>
       <c r="Q2">
-        <v>34.86955889913927</v>
+        <v>29.96659873928701</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999639</v>
       </c>
       <c r="S2">
-        <v>145.9118591187192</v>
+        <v>150.022875358701</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3350,7 +3350,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>6.909418745469265</v>
+        <v>0.04943754213142322</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>79.78309545281053</v>
+        <v>0.5708555651530133</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -3368,43 +3368,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.04239312320553314</v>
+        <v>5.852099171775743</v>
       </c>
       <c r="I3">
-        <v>0.8920439864268156</v>
+        <v>-775.3659126368789</v>
       </c>
       <c r="J3">
-        <v>0.1077319053178675</v>
+        <v>0.107731905231756</v>
       </c>
       <c r="K3">
-        <v>2.308438694642951</v>
+        <v>2.308438694639647</v>
       </c>
       <c r="L3">
-        <v>0.1077319054132358</v>
+        <v>0.1077319054248682</v>
       </c>
       <c r="M3">
-        <v>2.30843869464283</v>
+        <v>2.308438694642378</v>
       </c>
       <c r="N3">
-        <v>0.5711176213502603</v>
+        <v>1.104788553445941</v>
       </c>
       <c r="O3">
-        <v>1.100000023844381</v>
+        <v>1.100000023841807</v>
       </c>
       <c r="P3">
-        <v>0.5713299700315971</v>
+        <v>1.105098372197818</v>
       </c>
       <c r="Q3">
-        <v>74.32950827093296</v>
+        <v>29.83811634397472</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999598</v>
+        <v>-89.99999999999804</v>
       </c>
       <c r="S3">
-        <v>105.6645177901049</v>
+        <v>150.1338910370252</v>
       </c>
       <c r="T3">
-        <v>6.909418745469264</v>
+        <v>0.04943754213142321</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -3448,22 +3448,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5711176213969307</v>
+        <v>1.104788553445584</v>
       </c>
       <c r="O4">
-        <v>1.100000023844381</v>
+        <v>1.100000023841806</v>
       </c>
       <c r="P4">
-        <v>0.5713299700034213</v>
+        <v>1.105098372197724</v>
       </c>
       <c r="Q4">
-        <v>74.32950826867834</v>
+        <v>29.83811634396954</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999598</v>
+        <v>-89.99999999999807</v>
       </c>
       <c r="S4">
-        <v>105.6645177944639</v>
+        <v>150.1338910370065</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3510,22 +3510,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5711176214124876</v>
+        <v>1.104788553445466</v>
       </c>
       <c r="O5">
-        <v>1.10000002384438</v>
+        <v>1.100000023841807</v>
       </c>
       <c r="P5">
-        <v>0.5713299699940292</v>
+        <v>1.105098372197693</v>
       </c>
       <c r="Q5">
-        <v>74.32950826792681</v>
+        <v>29.83811634396781</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999598</v>
+        <v>-89.99999999999807</v>
       </c>
       <c r="S5">
-        <v>105.664517795917</v>
+        <v>150.1338910370004</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3572,22 +3572,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5711176214124875</v>
+        <v>1.104788553445465</v>
       </c>
       <c r="O6">
-        <v>1.100000023844381</v>
+        <v>1.100000023841806</v>
       </c>
       <c r="P6">
-        <v>0.5713299699940293</v>
+        <v>1.105098372197693</v>
       </c>
       <c r="Q6">
-        <v>74.32950826792681</v>
+        <v>29.83811634396781</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999598</v>
+        <v>-89.99999999999807</v>
       </c>
       <c r="S6">
-        <v>105.664517795917</v>
+        <v>150.1338910370004</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -3709,22 +3709,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.976083563742621</v>
+        <v>1.100878311776469</v>
       </c>
       <c r="O2">
-        <v>1.100000023851786</v>
+        <v>1.100000023841831</v>
       </c>
       <c r="P2">
-        <v>0.9669840901595244</v>
+        <v>1.100994951286461</v>
       </c>
       <c r="Q2">
-        <v>34.86955889913927</v>
+        <v>29.96659873928701</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999639</v>
       </c>
       <c r="S2">
-        <v>145.9118591187192</v>
+        <v>150.022875358701</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3735,7 +3735,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>6.909418745469265</v>
+        <v>0.04943754213142322</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -3744,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>79.78309545281053</v>
+        <v>0.5708555651530133</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -3753,43 +3753,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.04239312320553314</v>
+        <v>5.852099171775743</v>
       </c>
       <c r="I3">
-        <v>0.8920439864268156</v>
+        <v>-775.3659126368789</v>
       </c>
       <c r="J3">
-        <v>0.1077319053178675</v>
+        <v>0.107731905231756</v>
       </c>
       <c r="K3">
-        <v>2.308438694642951</v>
+        <v>2.308438694639647</v>
       </c>
       <c r="L3">
-        <v>0.1077319054132358</v>
+        <v>0.1077319054248682</v>
       </c>
       <c r="M3">
-        <v>2.30843869464283</v>
+        <v>2.308438694642378</v>
       </c>
       <c r="N3">
-        <v>0.5711176213502603</v>
+        <v>1.104788553445941</v>
       </c>
       <c r="O3">
-        <v>1.100000023844381</v>
+        <v>1.100000023841807</v>
       </c>
       <c r="P3">
-        <v>0.5713299700315971</v>
+        <v>1.105098372197818</v>
       </c>
       <c r="Q3">
-        <v>74.32950827093296</v>
+        <v>29.83811634397472</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999598</v>
+        <v>-89.99999999999804</v>
       </c>
       <c r="S3">
-        <v>105.6645177901049</v>
+        <v>150.1338910370252</v>
       </c>
       <c r="T3">
-        <v>6.909418745469264</v>
+        <v>0.04943754213142321</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -3833,22 +3833,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5711176213969307</v>
+        <v>1.104788553445584</v>
       </c>
       <c r="O4">
-        <v>1.100000023844381</v>
+        <v>1.100000023841806</v>
       </c>
       <c r="P4">
-        <v>0.5713299700034213</v>
+        <v>1.105098372197724</v>
       </c>
       <c r="Q4">
-        <v>74.32950826867834</v>
+        <v>29.83811634396954</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999598</v>
+        <v>-89.99999999999807</v>
       </c>
       <c r="S4">
-        <v>105.6645177944639</v>
+        <v>150.1338910370065</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3895,22 +3895,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5711176214124876</v>
+        <v>1.104788553445466</v>
       </c>
       <c r="O5">
-        <v>1.10000002384438</v>
+        <v>1.100000023841807</v>
       </c>
       <c r="P5">
-        <v>0.5713299699940292</v>
+        <v>1.105098372197693</v>
       </c>
       <c r="Q5">
-        <v>74.32950826792681</v>
+        <v>29.83811634396781</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999598</v>
+        <v>-89.99999999999807</v>
       </c>
       <c r="S5">
-        <v>105.664517795917</v>
+        <v>150.1338910370004</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3957,22 +3957,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5711176214124875</v>
+        <v>1.104788553445465</v>
       </c>
       <c r="O6">
-        <v>1.100000023844381</v>
+        <v>1.100000023841806</v>
       </c>
       <c r="P6">
-        <v>0.5713299699940293</v>
+        <v>1.105098372197693</v>
       </c>
       <c r="Q6">
-        <v>74.32950826792681</v>
+        <v>29.83811634396781</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999598</v>
+        <v>-89.99999999999807</v>
       </c>
       <c r="S6">
-        <v>105.664517795917</v>
+        <v>150.1338910370004</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4094,22 +4094,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.067209336218483</v>
+        <v>1.100882176584894</v>
       </c>
       <c r="O2">
-        <v>1.100000023844327</v>
+        <v>1.100000023841831</v>
       </c>
       <c r="P2">
-        <v>1.084448124728906</v>
+        <v>1.101023087556295</v>
       </c>
       <c r="Q2">
-        <v>29.97119969141926</v>
+        <v>29.96502326610963</v>
       </c>
       <c r="R2">
         <v>-89.99999999999639</v>
       </c>
       <c r="S2">
-        <v>148.4852877829034</v>
+        <v>150.0222604403442</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.490691422672488</v>
+        <v>0.05040075450338813</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -4129,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>17.21302188317254</v>
+        <v>0.5819777835978276</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -4138,43 +4138,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.04239312320553314</v>
+        <v>5.852099171775743</v>
       </c>
       <c r="I3">
-        <v>0.8920439864268156</v>
+        <v>-775.3659126368789</v>
       </c>
       <c r="J3">
-        <v>0.1077319053178675</v>
+        <v>0.107731905231756</v>
       </c>
       <c r="K3">
-        <v>2.308438694642951</v>
+        <v>2.308438694639647</v>
       </c>
       <c r="L3">
-        <v>0.1077319054132358</v>
+        <v>0.1077319054248682</v>
       </c>
       <c r="M3">
-        <v>2.30843869464283</v>
+        <v>2.308438694642378</v>
       </c>
       <c r="N3">
-        <v>0.9282456356847606</v>
+        <v>1.104817613942837</v>
       </c>
       <c r="O3">
-        <v>1.100000023844591</v>
+        <v>1.100000023841811</v>
       </c>
       <c r="P3">
-        <v>1.036054303580423</v>
+        <v>1.105249126362446</v>
       </c>
       <c r="Q3">
-        <v>29.26280869103021</v>
+        <v>29.82994192416453</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999643</v>
+        <v>-89.99999999999808</v>
       </c>
       <c r="S3">
-        <v>141.4081155808164</v>
+        <v>150.1310691941299</v>
       </c>
       <c r="T3">
-        <v>1.490691422672488</v>
+        <v>0.05040075450338813</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -4218,22 +4218,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9282456356914361</v>
+        <v>1.104817613942471</v>
       </c>
       <c r="O4">
-        <v>1.100000023844591</v>
+        <v>1.100000023841811</v>
       </c>
       <c r="P4">
-        <v>1.036054303574638</v>
+        <v>1.105249126362342</v>
       </c>
       <c r="Q4">
-        <v>29.26280869158344</v>
+        <v>29.82994192415962</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999643</v>
+        <v>-89.9999999999981</v>
       </c>
       <c r="S4">
-        <v>141.4081155813452</v>
+        <v>150.1310691941111</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4280,22 +4280,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9282456356936613</v>
+        <v>1.104817613942349</v>
       </c>
       <c r="O5">
-        <v>1.100000023844591</v>
+        <v>1.100000023841811</v>
       </c>
       <c r="P5">
-        <v>1.036054303572709</v>
+        <v>1.105249126362308</v>
       </c>
       <c r="Q5">
-        <v>29.26280869176786</v>
+        <v>29.829941924158</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999643</v>
+        <v>-89.9999999999981</v>
       </c>
       <c r="S5">
-        <v>141.4081155815215</v>
+        <v>150.1310691941048</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4342,22 +4342,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9282456356936613</v>
+        <v>1.104817613942348</v>
       </c>
       <c r="O6">
-        <v>1.100000023844591</v>
+        <v>1.100000023841811</v>
       </c>
       <c r="P6">
-        <v>1.036054303572709</v>
+        <v>1.105249126362308</v>
       </c>
       <c r="Q6">
-        <v>29.26280869176786</v>
+        <v>29.82994192415799</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999643</v>
+        <v>-89.9999999999981</v>
       </c>
       <c r="S6">
-        <v>141.4081155815215</v>
+        <v>150.1310691941048</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4630,22 +4630,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.067209336218483</v>
+        <v>1.100882176584894</v>
       </c>
       <c r="O2">
-        <v>1.100000023844327</v>
+        <v>1.100000023841831</v>
       </c>
       <c r="P2">
-        <v>1.084448124728906</v>
+        <v>1.101023087556295</v>
       </c>
       <c r="Q2">
-        <v>29.97119969141926</v>
+        <v>29.96502326610963</v>
       </c>
       <c r="R2">
         <v>-89.99999999999639</v>
       </c>
       <c r="S2">
-        <v>148.4852877829034</v>
+        <v>150.0222604403442</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4656,7 +4656,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.490691422672488</v>
+        <v>0.05040075450338813</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -4665,7 +4665,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>17.21302188317254</v>
+        <v>0.5819777835978276</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -4674,43 +4674,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.04239312320553314</v>
+        <v>5.852099171775743</v>
       </c>
       <c r="I3">
-        <v>0.8920439864268156</v>
+        <v>-775.3659126368789</v>
       </c>
       <c r="J3">
-        <v>0.1077319053178675</v>
+        <v>0.107731905231756</v>
       </c>
       <c r="K3">
-        <v>2.308438694642951</v>
+        <v>2.308438694639647</v>
       </c>
       <c r="L3">
-        <v>0.1077319054132358</v>
+        <v>0.1077319054248682</v>
       </c>
       <c r="M3">
-        <v>2.30843869464283</v>
+        <v>2.308438694642378</v>
       </c>
       <c r="N3">
-        <v>0.9282456356847606</v>
+        <v>1.104817613942837</v>
       </c>
       <c r="O3">
-        <v>1.100000023844591</v>
+        <v>1.100000023841811</v>
       </c>
       <c r="P3">
-        <v>1.036054303580423</v>
+        <v>1.105249126362446</v>
       </c>
       <c r="Q3">
-        <v>29.26280869103021</v>
+        <v>29.82994192416453</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999643</v>
+        <v>-89.99999999999808</v>
       </c>
       <c r="S3">
-        <v>141.4081155808164</v>
+        <v>150.1310691941299</v>
       </c>
       <c r="T3">
-        <v>1.490691422672488</v>
+        <v>0.05040075450338813</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -4754,22 +4754,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9282456356914361</v>
+        <v>1.104817613942471</v>
       </c>
       <c r="O4">
-        <v>1.100000023844591</v>
+        <v>1.100000023841811</v>
       </c>
       <c r="P4">
-        <v>1.036054303574638</v>
+        <v>1.105249126362342</v>
       </c>
       <c r="Q4">
-        <v>29.26280869158344</v>
+        <v>29.82994192415962</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999643</v>
+        <v>-89.9999999999981</v>
       </c>
       <c r="S4">
-        <v>141.4081155813452</v>
+        <v>150.1310691941111</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4816,22 +4816,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9282456356936613</v>
+        <v>1.104817613942349</v>
       </c>
       <c r="O5">
-        <v>1.100000023844591</v>
+        <v>1.100000023841811</v>
       </c>
       <c r="P5">
-        <v>1.036054303572709</v>
+        <v>1.105249126362308</v>
       </c>
       <c r="Q5">
-        <v>29.26280869176786</v>
+        <v>29.829941924158</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999643</v>
+        <v>-89.9999999999981</v>
       </c>
       <c r="S5">
-        <v>141.4081155815215</v>
+        <v>150.1310691941048</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9282456356936613</v>
+        <v>1.104817613942348</v>
       </c>
       <c r="O6">
-        <v>1.100000023844591</v>
+        <v>1.100000023841811</v>
       </c>
       <c r="P6">
-        <v>1.036054303572709</v>
+        <v>1.105249126362308</v>
       </c>
       <c r="Q6">
-        <v>29.26280869176786</v>
+        <v>29.82994192415799</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999643</v>
+        <v>-89.9999999999981</v>
       </c>
       <c r="S6">
-        <v>141.4081155815215</v>
+        <v>150.1310691941048</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5015,22 +5015,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8784953510127727</v>
+        <v>1.000902895456035</v>
       </c>
       <c r="O2">
-        <v>0.9999999999996155</v>
+        <v>0.9999999999999972</v>
       </c>
       <c r="P2">
-        <v>0.8696869061149672</v>
+        <v>1.001031219548103</v>
       </c>
       <c r="Q2">
-        <v>35.30432718617237</v>
+        <v>29.96167640077548</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>145.5236167343396</v>
+        <v>150.0255847202946</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5041,7 +5041,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>5.971573845397332</v>
+        <v>0.04495358134527086</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -5050,7 +5050,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>68.95379534251757</v>
+        <v>0.5190792458145974</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -5059,43 +5059,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.04805503825642112</v>
+        <v>11.2320395339859</v>
       </c>
       <c r="I3">
-        <v>0.9614893340929489</v>
+        <v>-775.3427828698207</v>
       </c>
       <c r="J3">
-        <v>0.1153518594909541</v>
+        <v>0.1153518594330438</v>
       </c>
       <c r="K3">
-        <v>2.41639754067582</v>
+        <v>2.416397540671755</v>
       </c>
       <c r="L3">
-        <v>0.1153518594711387</v>
+        <v>0.1153518594818714</v>
       </c>
       <c r="M3">
-        <v>2.416397540675689</v>
+        <v>2.416397540675952</v>
       </c>
       <c r="N3">
-        <v>0.5199875443305877</v>
+        <v>1.004534256329265</v>
       </c>
       <c r="O3">
-        <v>1.000000000006553</v>
+        <v>0.9999999999999483</v>
       </c>
       <c r="P3">
-        <v>0.5205030431981903</v>
+        <v>1.004872701095955</v>
       </c>
       <c r="Q3">
-        <v>73.95517106948732</v>
+        <v>29.8284379821289</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999596</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S3">
-        <v>106.028510192134</v>
+        <v>150.1379227798913</v>
       </c>
       <c r="T3">
-        <v>5.97157384539733</v>
+        <v>0.04495358134527086</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -5139,22 +5139,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5199875443808376</v>
+        <v>1.004534256328745</v>
       </c>
       <c r="O4">
-        <v>1.000000000006553</v>
+        <v>0.9999999999999485</v>
       </c>
       <c r="P4">
-        <v>0.5205030431808018</v>
+        <v>1.00487270109567</v>
       </c>
       <c r="Q4">
-        <v>73.95517106425993</v>
+        <v>29.82843798213039</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999598</v>
+        <v>-89.99999999999794</v>
       </c>
       <c r="S4">
-        <v>106.0285101994964</v>
+        <v>150.1379227798665</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5201,22 +5201,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5199875443975877</v>
+        <v>1.004534256328572</v>
       </c>
       <c r="O5">
-        <v>1.000000000006553</v>
+        <v>0.9999999999999487</v>
       </c>
       <c r="P5">
-        <v>0.5205030431750054</v>
+        <v>1.004872701095576</v>
       </c>
       <c r="Q5">
-        <v>73.95517106251745</v>
+        <v>29.8284379821309</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999598</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S5">
-        <v>106.0285102019505</v>
+        <v>150.1379227798582</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -5263,22 +5263,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5199875443975878</v>
+        <v>1.004534256328572</v>
       </c>
       <c r="O6">
-        <v>1.000000000006553</v>
+        <v>0.9999999999999486</v>
       </c>
       <c r="P6">
-        <v>0.5205030431750053</v>
+        <v>1.004872701095576</v>
       </c>
       <c r="Q6">
-        <v>73.95517106251746</v>
+        <v>29.82843798213089</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999598</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S6">
-        <v>106.0285102019505</v>
+        <v>150.1379227798582</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5400,22 +5400,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8784953510127727</v>
+        <v>1.000902895456035</v>
       </c>
       <c r="O2">
-        <v>0.9999999999996155</v>
+        <v>0.9999999999999972</v>
       </c>
       <c r="P2">
-        <v>0.8696869061149672</v>
+        <v>1.001031219548103</v>
       </c>
       <c r="Q2">
-        <v>35.30432718617237</v>
+        <v>29.96167640077548</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>145.5236167343396</v>
+        <v>150.0255847202946</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5426,7 +5426,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>5.971573845397332</v>
+        <v>0.04495358134527086</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -5435,7 +5435,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>68.95379534251757</v>
+        <v>0.5190792458145974</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -5444,43 +5444,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.04805503825642112</v>
+        <v>11.2320395339859</v>
       </c>
       <c r="I3">
-        <v>0.9614893340929489</v>
+        <v>-775.3427828698207</v>
       </c>
       <c r="J3">
-        <v>0.1153518594909541</v>
+        <v>0.1153518594330438</v>
       </c>
       <c r="K3">
-        <v>2.41639754067582</v>
+        <v>2.416397540671755</v>
       </c>
       <c r="L3">
-        <v>0.1153518594711387</v>
+        <v>0.1153518594818714</v>
       </c>
       <c r="M3">
-        <v>2.416397540675689</v>
+        <v>2.416397540675952</v>
       </c>
       <c r="N3">
-        <v>0.5199875443305877</v>
+        <v>1.004534256329265</v>
       </c>
       <c r="O3">
-        <v>1.000000000006553</v>
+        <v>0.9999999999999483</v>
       </c>
       <c r="P3">
-        <v>0.5205030431981903</v>
+        <v>1.004872701095955</v>
       </c>
       <c r="Q3">
-        <v>73.95517106948732</v>
+        <v>29.8284379821289</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999596</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S3">
-        <v>106.028510192134</v>
+        <v>150.1379227798913</v>
       </c>
       <c r="T3">
-        <v>5.97157384539733</v>
+        <v>0.04495358134527086</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -5524,22 +5524,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5199875443808376</v>
+        <v>1.004534256328745</v>
       </c>
       <c r="O4">
-        <v>1.000000000006553</v>
+        <v>0.9999999999999485</v>
       </c>
       <c r="P4">
-        <v>0.5205030431808018</v>
+        <v>1.00487270109567</v>
       </c>
       <c r="Q4">
-        <v>73.95517106425993</v>
+        <v>29.82843798213039</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999598</v>
+        <v>-89.99999999999794</v>
       </c>
       <c r="S4">
-        <v>106.0285101994964</v>
+        <v>150.1379227798665</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5586,22 +5586,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5199875443975877</v>
+        <v>1.004534256328572</v>
       </c>
       <c r="O5">
-        <v>1.000000000006553</v>
+        <v>0.9999999999999487</v>
       </c>
       <c r="P5">
-        <v>0.5205030431750054</v>
+        <v>1.004872701095576</v>
       </c>
       <c r="Q5">
-        <v>73.95517106251745</v>
+        <v>29.8284379821309</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999598</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S5">
-        <v>106.0285102019505</v>
+        <v>150.1379227798582</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -5648,22 +5648,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5199875443975878</v>
+        <v>1.004534256328572</v>
       </c>
       <c r="O6">
-        <v>1.000000000006553</v>
+        <v>0.9999999999999486</v>
       </c>
       <c r="P6">
-        <v>0.5205030431750053</v>
+        <v>1.004872701095576</v>
       </c>
       <c r="Q6">
-        <v>73.95517106251746</v>
+        <v>29.82843798213089</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999598</v>
+        <v>-89.99999999999793</v>
       </c>
       <c r="S6">
-        <v>106.0285102019505</v>
+        <v>150.1379227798582</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5785,22 +5785,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9664401161616</v>
+        <v>1.000906449153064</v>
       </c>
       <c r="O2">
-        <v>0.9999999999985455</v>
+        <v>0.9999999999999953</v>
       </c>
       <c r="P2">
-        <v>0.9839570104164636</v>
+        <v>1.001060119079572</v>
       </c>
       <c r="Q2">
-        <v>29.97929339517103</v>
+        <v>29.95988266319327</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999639</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>148.2971983266942</v>
+        <v>150.0248622657497</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5811,7 +5811,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.342470622519292</v>
+        <v>0.04582306876652713</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -5820,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.50151550581355</v>
+        <v>0.5291192217489835</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -5829,43 +5829,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.04805503825642112</v>
+        <v>11.2320395339859</v>
       </c>
       <c r="I3">
-        <v>0.9614893340929489</v>
+        <v>-775.3427828698207</v>
       </c>
       <c r="J3">
-        <v>0.1153518594909541</v>
+        <v>0.1153518594330438</v>
       </c>
       <c r="K3">
-        <v>2.41639754067582</v>
+        <v>2.416397540671755</v>
       </c>
       <c r="L3">
-        <v>0.1153518594711387</v>
+        <v>0.1153518594818714</v>
       </c>
       <c r="M3">
-        <v>2.416397540675689</v>
+        <v>2.416397540675952</v>
       </c>
       <c r="N3">
-        <v>0.8379950716203171</v>
+        <v>1.004559660983844</v>
       </c>
       <c r="O3">
-        <v>1.000000000000764</v>
+        <v>0.9999999999999486</v>
       </c>
       <c r="P3">
-        <v>0.939059923977705</v>
+        <v>1.005015404683335</v>
       </c>
       <c r="Q3">
-        <v>29.30792029102571</v>
+        <v>29.81985685634898</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999643</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S3">
-        <v>141.0918491689127</v>
+        <v>150.1348438960585</v>
       </c>
       <c r="T3">
-        <v>1.342470622519292</v>
+        <v>0.04582306876652713</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -5909,22 +5909,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8379950716330672</v>
+        <v>1.004559660983315</v>
       </c>
       <c r="O4">
-        <v>1.000000000000764</v>
+        <v>0.9999999999999489</v>
       </c>
       <c r="P4">
-        <v>0.9390599239741936</v>
+        <v>1.005015404683036</v>
       </c>
       <c r="Q4">
-        <v>29.30792029163264</v>
+        <v>29.8198568563511</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999645</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S4">
-        <v>141.0918491698361</v>
+        <v>150.1348438960335</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5971,22 +5971,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.837995071637317</v>
+        <v>1.004559660983139</v>
       </c>
       <c r="O5">
-        <v>1.000000000000764</v>
+        <v>0.9999999999999489</v>
       </c>
       <c r="P5">
-        <v>0.9390599239730231</v>
+        <v>1.005015404682936</v>
       </c>
       <c r="Q5">
-        <v>29.30792029183495</v>
+        <v>29.81985685635182</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999645</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S5">
-        <v>141.0918491701439</v>
+        <v>150.1348438960252</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6033,22 +6033,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.837995071637317</v>
+        <v>1.004559660983139</v>
       </c>
       <c r="O6">
-        <v>1.000000000000764</v>
+        <v>0.9999999999999489</v>
       </c>
       <c r="P6">
-        <v>0.939059923973023</v>
+        <v>1.005015404682936</v>
       </c>
       <c r="Q6">
-        <v>29.30792029183495</v>
+        <v>29.81985685635182</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999645</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S6">
-        <v>141.0918491701439</v>
+        <v>150.1348438960252</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6170,22 +6170,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9664401161616</v>
+        <v>1.000906449153064</v>
       </c>
       <c r="O2">
-        <v>0.9999999999985455</v>
+        <v>0.9999999999999953</v>
       </c>
       <c r="P2">
-        <v>0.9839570104164636</v>
+        <v>1.001060119079572</v>
       </c>
       <c r="Q2">
-        <v>29.97929339517103</v>
+        <v>29.95988266319327</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999639</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>148.2971983266942</v>
+        <v>150.0248622657497</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6196,7 +6196,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.342470622519292</v>
+        <v>0.04582306876652713</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -6205,7 +6205,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.50151550581355</v>
+        <v>0.5291192217489835</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -6214,43 +6214,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.04805503825642112</v>
+        <v>11.2320395339859</v>
       </c>
       <c r="I3">
-        <v>0.9614893340929489</v>
+        <v>-775.3427828698207</v>
       </c>
       <c r="J3">
-        <v>0.1153518594909541</v>
+        <v>0.1153518594330438</v>
       </c>
       <c r="K3">
-        <v>2.41639754067582</v>
+        <v>2.416397540671755</v>
       </c>
       <c r="L3">
-        <v>0.1153518594711387</v>
+        <v>0.1153518594818714</v>
       </c>
       <c r="M3">
-        <v>2.416397540675689</v>
+        <v>2.416397540675952</v>
       </c>
       <c r="N3">
-        <v>0.8379950716203171</v>
+        <v>1.004559660983844</v>
       </c>
       <c r="O3">
-        <v>1.000000000000764</v>
+        <v>0.9999999999999486</v>
       </c>
       <c r="P3">
-        <v>0.939059923977705</v>
+        <v>1.005015404683335</v>
       </c>
       <c r="Q3">
-        <v>29.30792029102571</v>
+        <v>29.81985685634898</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999643</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S3">
-        <v>141.0918491689127</v>
+        <v>150.1348438960585</v>
       </c>
       <c r="T3">
-        <v>1.342470622519292</v>
+        <v>0.04582306876652713</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -6294,22 +6294,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8379950716330672</v>
+        <v>1.004559660983315</v>
       </c>
       <c r="O4">
-        <v>1.000000000000764</v>
+        <v>0.9999999999999489</v>
       </c>
       <c r="P4">
-        <v>0.9390599239741936</v>
+        <v>1.005015404683036</v>
       </c>
       <c r="Q4">
-        <v>29.30792029163264</v>
+        <v>29.8198568563511</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999645</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S4">
-        <v>141.0918491698361</v>
+        <v>150.1348438960335</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6356,22 +6356,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.837995071637317</v>
+        <v>1.004559660983139</v>
       </c>
       <c r="O5">
-        <v>1.000000000000764</v>
+        <v>0.9999999999999489</v>
       </c>
       <c r="P5">
-        <v>0.9390599239730231</v>
+        <v>1.005015404682936</v>
       </c>
       <c r="Q5">
-        <v>29.30792029183495</v>
+        <v>29.81985685635182</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999645</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S5">
-        <v>141.0918491701439</v>
+        <v>150.1348438960252</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6418,22 +6418,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.837995071637317</v>
+        <v>1.004559660983139</v>
       </c>
       <c r="O6">
-        <v>1.000000000000764</v>
+        <v>0.9999999999999489</v>
       </c>
       <c r="P6">
-        <v>0.939059923973023</v>
+        <v>1.005015404682936</v>
       </c>
       <c r="Q6">
-        <v>29.30792029183495</v>
+        <v>29.81985685635182</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999645</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S6">
-        <v>141.0918491701439</v>
+        <v>150.1348438960252</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6555,22 +6555,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9576581747476225</v>
+        <v>1.046826282933575</v>
       </c>
       <c r="O2">
-        <v>0.8909260930503231</v>
+        <v>0.890926093052312</v>
       </c>
       <c r="P2">
-        <v>0.962495767165123</v>
+        <v>1.056908297468289</v>
       </c>
       <c r="Q2">
-        <v>28.08272414541331</v>
+        <v>25.18079702256675</v>
       </c>
       <c r="R2">
-        <v>-89.28600430298985</v>
+        <v>-89.28600430314947</v>
       </c>
       <c r="S2">
-        <v>152.7940794452909</v>
+        <v>155.0724325034159</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6584,58 +6584,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.655742685060391</v>
+        <v>4.760628060677944</v>
       </c>
       <c r="D3">
-        <v>6.653268916077329</v>
+        <v>4.759293399546158</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>76.85389661752998</v>
+        <v>54.97099784688195</v>
       </c>
       <c r="G3">
-        <v>76.82533199376431</v>
+        <v>54.95558650760768</v>
       </c>
       <c r="H3">
-        <v>0.04239312320552924</v>
+        <v>5.852099171775197</v>
       </c>
       <c r="I3">
-        <v>0.892043986427</v>
+        <v>-775.3659126368779</v>
       </c>
       <c r="J3">
-        <v>0.1077319054063861</v>
+        <v>0.1077319054466534</v>
       </c>
       <c r="K3">
-        <v>2.308438694631209</v>
+        <v>2.308438694707467</v>
       </c>
       <c r="L3">
-        <v>0.1077319054131873</v>
+        <v>0.1077319054074683</v>
       </c>
       <c r="M3">
-        <v>2.308438694642881</v>
+        <v>2.308438694652887</v>
       </c>
       <c r="N3">
-        <v>0.4152961960350121</v>
+        <v>0.9540475876890459</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.4152961960482959</v>
+        <v>0.9540475876895349</v>
       </c>
       <c r="Q3">
-        <v>-0.02756566514285392</v>
+        <v>-0.004630797984308941</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>179.9724343335005</v>
+        <v>179.9953692020175</v>
       </c>
       <c r="T3">
-        <v>9.300617995332441</v>
+        <v>0.0246082630026857</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -6679,22 +6679,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.4152961960312588</v>
+        <v>0.9540475876622083</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.415296196098108</v>
+        <v>0.9540475877162441</v>
       </c>
       <c r="Q4">
-        <v>-0.0275656582782755</v>
+        <v>-0.004630796571385101</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9724343338582</v>
+        <v>179.9953692005967</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6741,22 +6741,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.4152961960300078</v>
+        <v>0.9540475876532624</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.415296196114712</v>
+        <v>0.9540475877251471</v>
       </c>
       <c r="Q5">
-        <v>-0.02756565599009549</v>
+        <v>-0.004630796100415812</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9724343339774</v>
+        <v>179.9953692001231</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6803,22 +6803,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.4152961960300078</v>
+        <v>0.9540475876532624</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.415296196114712</v>
+        <v>0.9540475877251471</v>
       </c>
       <c r="Q6">
-        <v>-0.02756565599009169</v>
+        <v>-0.004630796100412504</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9724343339774</v>
+        <v>179.9953692001231</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6940,22 +6940,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9576581747476225</v>
+        <v>1.046826282933575</v>
       </c>
       <c r="O2">
-        <v>0.8909260930503231</v>
+        <v>0.890926093052312</v>
       </c>
       <c r="P2">
-        <v>0.962495767165123</v>
+        <v>1.056908297468289</v>
       </c>
       <c r="Q2">
-        <v>28.08272414541331</v>
+        <v>25.18079702256675</v>
       </c>
       <c r="R2">
-        <v>-89.28600430298985</v>
+        <v>-89.28600430314947</v>
       </c>
       <c r="S2">
-        <v>152.7940794452909</v>
+        <v>155.0724325034159</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6969,58 +6969,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.655742685060391</v>
+        <v>4.760628060677944</v>
       </c>
       <c r="D3">
-        <v>6.653268916077329</v>
+        <v>4.759293399546158</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>76.85389661752998</v>
+        <v>54.97099784688195</v>
       </c>
       <c r="G3">
-        <v>76.82533199376431</v>
+        <v>54.95558650760768</v>
       </c>
       <c r="H3">
-        <v>0.04239312320552924</v>
+        <v>5.852099171775197</v>
       </c>
       <c r="I3">
-        <v>0.892043986427</v>
+        <v>-775.3659126368779</v>
       </c>
       <c r="J3">
-        <v>0.1077319054063861</v>
+        <v>0.1077319054466534</v>
       </c>
       <c r="K3">
-        <v>2.308438694631209</v>
+        <v>2.308438694707467</v>
       </c>
       <c r="L3">
-        <v>0.1077319054131873</v>
+        <v>0.1077319054074683</v>
       </c>
       <c r="M3">
-        <v>2.308438694642881</v>
+        <v>2.308438694652887</v>
       </c>
       <c r="N3">
-        <v>0.4152961960350121</v>
+        <v>0.9540475876890459</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.4152961960482959</v>
+        <v>0.9540475876895349</v>
       </c>
       <c r="Q3">
-        <v>-0.02756566514285392</v>
+        <v>-0.004630797984308941</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>179.9724343335005</v>
+        <v>179.9953692020175</v>
       </c>
       <c r="T3">
-        <v>9.300617995332441</v>
+        <v>0.0246082630026857</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -7064,22 +7064,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.4152961960312588</v>
+        <v>0.9540475876622083</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.415296196098108</v>
+        <v>0.9540475877162441</v>
       </c>
       <c r="Q4">
-        <v>-0.0275656582782755</v>
+        <v>-0.004630796571385101</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9724343338582</v>
+        <v>179.9953692005967</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7126,22 +7126,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.4152961960300078</v>
+        <v>0.9540475876532624</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.415296196114712</v>
+        <v>0.9540475877251471</v>
       </c>
       <c r="Q5">
-        <v>-0.02756565599009549</v>
+        <v>-0.004630796100415812</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9724343339774</v>
+        <v>179.9953692001231</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7188,22 +7188,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.4152961960300078</v>
+        <v>0.9540475876532624</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.415296196114712</v>
+        <v>0.9540475877251471</v>
       </c>
       <c r="Q6">
-        <v>-0.02756565599009169</v>
+        <v>-0.004630796100412504</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9724343339774</v>
+        <v>179.9953692001231</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7325,22 +7325,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.082842394757944</v>
+        <v>1.100197163133209</v>
       </c>
       <c r="O2">
-        <v>1.052967690033198</v>
+        <v>1.052967690033125</v>
       </c>
       <c r="P2">
-        <v>1.068826117162038</v>
+        <v>1.077019592124106</v>
       </c>
       <c r="Q2">
-        <v>28.51946763555646</v>
+        <v>28.57802870560222</v>
       </c>
       <c r="R2">
-        <v>-91.44286082237976</v>
+        <v>-91.44286082238185</v>
       </c>
       <c r="S2">
-        <v>149.9250904388271</v>
+        <v>150.7442556418985</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7354,58 +7354,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.500462822820001</v>
+        <v>1.241015811730293</v>
       </c>
       <c r="D3">
-        <v>1.418460210995387</v>
+        <v>1.226429539935552</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>17.32585229328307</v>
+        <v>14.33001625942133</v>
       </c>
       <c r="G3">
-        <v>16.3789676930592</v>
+        <v>14.161588500478</v>
       </c>
       <c r="H3">
-        <v>0.04239312320552924</v>
+        <v>5.852099171775197</v>
       </c>
       <c r="I3">
-        <v>0.892043986427</v>
+        <v>-775.3659126368779</v>
       </c>
       <c r="J3">
-        <v>0.1077319054063861</v>
+        <v>0.1077319054466534</v>
       </c>
       <c r="K3">
-        <v>2.308438694631209</v>
+        <v>2.308438694707467</v>
       </c>
       <c r="L3">
-        <v>0.1077319054131873</v>
+        <v>0.1077319054074683</v>
       </c>
       <c r="M3">
-        <v>2.308438694642881</v>
+        <v>2.308438694652887</v>
       </c>
       <c r="N3">
-        <v>1.027156641749398</v>
+        <v>1.116087141926277</v>
       </c>
       <c r="O3">
-        <v>0.8723446855816874</v>
+        <v>0.8723446855795995</v>
       </c>
       <c r="P3">
-        <v>0.9370208351702841</v>
+        <v>0.9773969743712063</v>
       </c>
       <c r="Q3">
-        <v>21.51178856867009</v>
+        <v>22.62665199802619</v>
       </c>
       <c r="R3">
-        <v>-100.0510163395943</v>
+        <v>-100.0510163396291</v>
       </c>
       <c r="S3">
-        <v>149.0210852516981</v>
+        <v>153.9277358804149</v>
       </c>
       <c r="T3">
-        <v>1.561715115502386</v>
+        <v>0.02484590714044758</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -7449,22 +7449,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.027156641744103</v>
+        <v>1.116087141918325</v>
       </c>
       <c r="O4">
-        <v>0.8723446855813851</v>
+        <v>0.8723446855792972</v>
       </c>
       <c r="P4">
-        <v>0.9370208351763541</v>
+        <v>0.9773969743800229</v>
       </c>
       <c r="Q4">
-        <v>21.5117885692237</v>
+        <v>22.62665199827416</v>
       </c>
       <c r="R4">
-        <v>-100.0510163383795</v>
+        <v>-100.0510163384143</v>
       </c>
       <c r="S4">
-        <v>149.021085252232</v>
+        <v>153.9277358805679</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7511,22 +7511,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.027156641742338</v>
+        <v>1.116087141915674</v>
       </c>
       <c r="O5">
-        <v>0.8723446855812842</v>
+        <v>0.8723446855791961</v>
       </c>
       <c r="P5">
-        <v>0.9370208351783776</v>
+        <v>0.9773969743829617</v>
       </c>
       <c r="Q5">
-        <v>21.51178856940823</v>
+        <v>22.62665199835681</v>
       </c>
       <c r="R5">
-        <v>-100.0510163379746</v>
+        <v>-100.0510163380094</v>
       </c>
       <c r="S5">
-        <v>149.02108525241</v>
+        <v>153.9277358806189</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7573,22 +7573,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.027156641742338</v>
+        <v>1.116087141915674</v>
       </c>
       <c r="O6">
-        <v>0.8723446855812842</v>
+        <v>0.8723446855791964</v>
       </c>
       <c r="P6">
-        <v>0.9370208351783776</v>
+        <v>0.9773969743829617</v>
       </c>
       <c r="Q6">
-        <v>21.51178856940823</v>
+        <v>22.62665199835681</v>
       </c>
       <c r="R6">
-        <v>-100.0510163379746</v>
+        <v>-100.0510163380094</v>
       </c>
       <c r="S6">
-        <v>149.02108525241</v>
+        <v>153.9277358806189</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7710,22 +7710,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.082842394757944</v>
+        <v>1.100197163133209</v>
       </c>
       <c r="O2">
-        <v>1.052967690033198</v>
+        <v>1.052967690033125</v>
       </c>
       <c r="P2">
-        <v>1.068826117162038</v>
+        <v>1.077019592124106</v>
       </c>
       <c r="Q2">
-        <v>28.51946763555646</v>
+        <v>28.57802870560222</v>
       </c>
       <c r="R2">
-        <v>-91.44286082237976</v>
+        <v>-91.44286082238185</v>
       </c>
       <c r="S2">
-        <v>149.9250904388271</v>
+        <v>150.7442556418985</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7739,58 +7739,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.500462822820001</v>
+        <v>1.241015811730293</v>
       </c>
       <c r="D3">
-        <v>1.418460210995387</v>
+        <v>1.226429539935552</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>17.32585229328307</v>
+        <v>14.33001625942133</v>
       </c>
       <c r="G3">
-        <v>16.3789676930592</v>
+        <v>14.161588500478</v>
       </c>
       <c r="H3">
-        <v>0.04239312320552924</v>
+        <v>5.852099171775197</v>
       </c>
       <c r="I3">
-        <v>0.892043986427</v>
+        <v>-775.3659126368779</v>
       </c>
       <c r="J3">
-        <v>0.1077319054063861</v>
+        <v>0.1077319054466534</v>
       </c>
       <c r="K3">
-        <v>2.308438694631209</v>
+        <v>2.308438694707467</v>
       </c>
       <c r="L3">
-        <v>0.1077319054131873</v>
+        <v>0.1077319054074683</v>
       </c>
       <c r="M3">
-        <v>2.308438694642881</v>
+        <v>2.308438694652887</v>
       </c>
       <c r="N3">
-        <v>1.027156641749398</v>
+        <v>1.116087141926277</v>
       </c>
       <c r="O3">
-        <v>0.8723446855816874</v>
+        <v>0.8723446855795995</v>
       </c>
       <c r="P3">
-        <v>0.9370208351702841</v>
+        <v>0.9773969743712063</v>
       </c>
       <c r="Q3">
-        <v>21.51178856867009</v>
+        <v>22.62665199802619</v>
       </c>
       <c r="R3">
-        <v>-100.0510163395943</v>
+        <v>-100.0510163396291</v>
       </c>
       <c r="S3">
-        <v>149.0210852516981</v>
+        <v>153.9277358804149</v>
       </c>
       <c r="T3">
-        <v>1.561715115502386</v>
+        <v>0.02484590714044758</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -7834,22 +7834,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.027156641744103</v>
+        <v>1.116087141918325</v>
       </c>
       <c r="O4">
-        <v>0.8723446855813851</v>
+        <v>0.8723446855792972</v>
       </c>
       <c r="P4">
-        <v>0.9370208351763541</v>
+        <v>0.9773969743800229</v>
       </c>
       <c r="Q4">
-        <v>21.5117885692237</v>
+        <v>22.62665199827416</v>
       </c>
       <c r="R4">
-        <v>-100.0510163383795</v>
+        <v>-100.0510163384143</v>
       </c>
       <c r="S4">
-        <v>149.021085252232</v>
+        <v>153.9277358805679</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7896,22 +7896,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.027156641742338</v>
+        <v>1.116087141915674</v>
       </c>
       <c r="O5">
-        <v>0.8723446855812842</v>
+        <v>0.8723446855791961</v>
       </c>
       <c r="P5">
-        <v>0.9370208351783776</v>
+        <v>0.9773969743829617</v>
       </c>
       <c r="Q5">
-        <v>21.51178856940823</v>
+        <v>22.62665199835681</v>
       </c>
       <c r="R5">
-        <v>-100.0510163379746</v>
+        <v>-100.0510163380094</v>
       </c>
       <c r="S5">
-        <v>149.02108525241</v>
+        <v>153.9277358806189</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7958,22 +7958,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.027156641742338</v>
+        <v>1.116087141915674</v>
       </c>
       <c r="O6">
-        <v>0.8723446855812842</v>
+        <v>0.8723446855791964</v>
       </c>
       <c r="P6">
-        <v>0.9370208351783776</v>
+        <v>0.9773969743829617</v>
       </c>
       <c r="Q6">
-        <v>21.51178856940823</v>
+        <v>22.62665199835681</v>
       </c>
       <c r="R6">
-        <v>-100.0510163379746</v>
+        <v>-100.0510163380094</v>
       </c>
       <c r="S6">
-        <v>149.02108525241</v>
+        <v>153.9277358806189</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8095,22 +8095,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8607004480082084</v>
+        <v>0.9479621696922974</v>
       </c>
       <c r="O2">
-        <v>0.793667423273654</v>
+        <v>0.7936674232738933</v>
       </c>
       <c r="P2">
-        <v>0.8655650123853359</v>
+        <v>0.9577495892495971</v>
       </c>
       <c r="Q2">
-        <v>27.83437720883317</v>
+        <v>24.7428076123064</v>
       </c>
       <c r="R2">
-        <v>-89.22492623911639</v>
+        <v>-89.22492623896835</v>
       </c>
       <c r="S2">
-        <v>153.0920411479745</v>
+        <v>155.5225477128061</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8124,58 +8124,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.745794206822671</v>
+        <v>4.134395904280054</v>
       </c>
       <c r="D3">
-        <v>5.740103653389158</v>
+        <v>4.133003424759106</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>66.34671664034524</v>
+        <v>47.73989176545151</v>
       </c>
       <c r="G3">
-        <v>66.2810077892117</v>
+        <v>47.7238127969263</v>
       </c>
       <c r="H3">
-        <v>0.04805503825641658</v>
+        <v>11.23203953398521</v>
       </c>
       <c r="I3">
-        <v>0.9614893340931525</v>
+        <v>-775.3427828698191</v>
       </c>
       <c r="J3">
-        <v>0.115351859494996</v>
+        <v>0.115351859519944</v>
       </c>
       <c r="K3">
-        <v>2.416397540717266</v>
+        <v>2.416397540768824</v>
       </c>
       <c r="L3">
-        <v>0.1153518594710898</v>
+        <v>0.1153518594657646</v>
       </c>
       <c r="M3">
-        <v>2.416397540675748</v>
+        <v>2.416397540684781</v>
       </c>
       <c r="N3">
-        <v>0.3837995827565157</v>
+        <v>0.8673757932938726</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.383799582746836</v>
+        <v>0.8673757932940175</v>
       </c>
       <c r="Q3">
-        <v>-0.07137942505301514</v>
+        <v>-0.005562991631952318</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>179.9286205741263</v>
+        <v>179.9944370083003</v>
       </c>
       <c r="T3">
-        <v>7.973486622771711</v>
+        <v>0.02237164807665007</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -8219,22 +8219,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.3837995827717944</v>
+        <v>0.8673757932694157</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.3837995828108921</v>
+        <v>0.8673757933182431</v>
       </c>
       <c r="Q4">
-        <v>-0.0713794153920564</v>
+        <v>-0.005562988915548387</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9286205714999</v>
+        <v>179.9944370055762</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -8281,22 +8281,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.3837995827768872</v>
+        <v>0.8673757932612637</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.3837995828322441</v>
+        <v>0.8673757933263188</v>
       </c>
       <c r="Q5">
-        <v>-0.07137941217174346</v>
+        <v>-0.005562988010084292</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9286205706245</v>
+        <v>179.9944370046681</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8343,22 +8343,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.3837995827768871</v>
+        <v>0.8673757932612634</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.383799582832244</v>
+        <v>0.8673757933263188</v>
       </c>
       <c r="Q6">
-        <v>-0.07137941217173936</v>
+        <v>-0.00556298801008618</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9286205706245</v>
+        <v>179.9944370046681</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8631,22 +8631,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8607004480082084</v>
+        <v>0.9479621696922974</v>
       </c>
       <c r="O2">
-        <v>0.793667423273654</v>
+        <v>0.7936674232738933</v>
       </c>
       <c r="P2">
-        <v>0.8655650123853359</v>
+        <v>0.9577495892495971</v>
       </c>
       <c r="Q2">
-        <v>27.83437720883317</v>
+        <v>24.7428076123064</v>
       </c>
       <c r="R2">
-        <v>-89.22492623911639</v>
+        <v>-89.22492623896835</v>
       </c>
       <c r="S2">
-        <v>153.0920411479745</v>
+        <v>155.5225477128061</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8660,58 +8660,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.745794206822671</v>
+        <v>4.134395904280054</v>
       </c>
       <c r="D3">
-        <v>5.740103653389158</v>
+        <v>4.133003424759106</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>66.34671664034524</v>
+        <v>47.73989176545151</v>
       </c>
       <c r="G3">
-        <v>66.2810077892117</v>
+        <v>47.7238127969263</v>
       </c>
       <c r="H3">
-        <v>0.04805503825641658</v>
+        <v>11.23203953398521</v>
       </c>
       <c r="I3">
-        <v>0.9614893340931525</v>
+        <v>-775.3427828698191</v>
       </c>
       <c r="J3">
-        <v>0.115351859494996</v>
+        <v>0.115351859519944</v>
       </c>
       <c r="K3">
-        <v>2.416397540717266</v>
+        <v>2.416397540768824</v>
       </c>
       <c r="L3">
-        <v>0.1153518594710898</v>
+        <v>0.1153518594657646</v>
       </c>
       <c r="M3">
-        <v>2.416397540675748</v>
+        <v>2.416397540684781</v>
       </c>
       <c r="N3">
-        <v>0.3837995827565157</v>
+        <v>0.8673757932938726</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.383799582746836</v>
+        <v>0.8673757932940175</v>
       </c>
       <c r="Q3">
-        <v>-0.07137942505301514</v>
+        <v>-0.005562991631952318</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>179.9286205741263</v>
+        <v>179.9944370083003</v>
       </c>
       <c r="T3">
-        <v>7.973486622771711</v>
+        <v>0.02237164807665007</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -8755,22 +8755,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.3837995827717944</v>
+        <v>0.8673757932694157</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.3837995828108921</v>
+        <v>0.8673757933182431</v>
       </c>
       <c r="Q4">
-        <v>-0.0713794153920564</v>
+        <v>-0.005562988915548387</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9286205714999</v>
+        <v>179.9944370055762</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -8817,22 +8817,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.3837995827768872</v>
+        <v>0.8673757932612637</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.3837995828322441</v>
+        <v>0.8673757933263188</v>
       </c>
       <c r="Q5">
-        <v>-0.07137941217174346</v>
+        <v>-0.005562988010084292</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9286205706245</v>
+        <v>179.9944370046681</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8879,22 +8879,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.3837995827768871</v>
+        <v>0.8673757932612634</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.383799582832244</v>
+        <v>0.8673757933263188</v>
       </c>
       <c r="Q6">
-        <v>-0.07137941217173936</v>
+        <v>-0.00556298801008618</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9286205706245</v>
+        <v>179.9944370046681</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9016,22 +9016,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9822913689209345</v>
+        <v>1.000074713609071</v>
       </c>
       <c r="O2">
-        <v>0.9517844802521986</v>
+        <v>0.9517844802528803</v>
       </c>
       <c r="P2">
-        <v>0.9681117308165348</v>
+        <v>0.9766104918879008</v>
       </c>
       <c r="Q2">
-        <v>28.33717433340531</v>
+        <v>28.40056801449168</v>
       </c>
       <c r="R2">
-        <v>-91.61401138281487</v>
+        <v>-91.61401138280999</v>
       </c>
       <c r="S2">
-        <v>149.9249909121744</v>
+        <v>150.8477380876126</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9045,58 +9045,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.351080255599717</v>
+        <v>1.116623666278724</v>
       </c>
       <c r="D3">
-        <v>1.276571043403532</v>
+        <v>1.10334851198063</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>15.60093098534571</v>
+        <v>12.89365948619057</v>
       </c>
       <c r="G3">
-        <v>14.74057271097422</v>
+        <v>12.7403712080398</v>
       </c>
       <c r="H3">
-        <v>0.04805503825641658</v>
+        <v>11.23203953398521</v>
       </c>
       <c r="I3">
-        <v>0.9614893340931525</v>
+        <v>-775.3427828698191</v>
       </c>
       <c r="J3">
-        <v>0.115351859494996</v>
+        <v>0.115351859519944</v>
       </c>
       <c r="K3">
-        <v>2.416397540717266</v>
+        <v>2.416397540768824</v>
       </c>
       <c r="L3">
-        <v>0.1153518594710898</v>
+        <v>0.1153518594657646</v>
       </c>
       <c r="M3">
-        <v>2.416397540675748</v>
+        <v>2.416397540684781</v>
       </c>
       <c r="N3">
-        <v>0.9305424391900116</v>
+        <v>1.014509599826325</v>
       </c>
       <c r="O3">
-        <v>0.7848521014139237</v>
+        <v>0.7848521014138538</v>
       </c>
       <c r="P3">
-        <v>0.8463559336115193</v>
+        <v>0.8851496933278682</v>
       </c>
       <c r="Q3">
-        <v>21.20506830981835</v>
+        <v>22.35573735506043</v>
       </c>
       <c r="R3">
-        <v>-100.4045966787053</v>
+        <v>-100.4045966786907</v>
       </c>
       <c r="S3">
-        <v>149.0428370113121</v>
+        <v>154.1405080944392</v>
       </c>
       <c r="T3">
-        <v>1.407892184491623</v>
+        <v>0.0225861296782449</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -9140,22 +9140,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9305424391873217</v>
+        <v>1.014509599817923</v>
       </c>
       <c r="O4">
-        <v>0.7848521014215</v>
+        <v>0.7848521014214299</v>
       </c>
       <c r="P4">
-        <v>0.8463559336233502</v>
+        <v>0.8851496933406277</v>
       </c>
       <c r="Q4">
-        <v>21.20506831076672</v>
+        <v>22.35573735561489</v>
       </c>
       <c r="R4">
-        <v>-100.4045966769133</v>
+        <v>-100.4045966768987</v>
       </c>
       <c r="S4">
-        <v>149.042837011911</v>
+        <v>154.1405080944079</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -9202,22 +9202,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.930542439186425</v>
+        <v>1.014509599815122</v>
       </c>
       <c r="O5">
-        <v>0.7848521014240255</v>
+        <v>0.7848521014239552</v>
       </c>
       <c r="P5">
-        <v>0.8463559336272938</v>
+        <v>0.8851496933448809</v>
       </c>
       <c r="Q5">
-        <v>21.20506831108284</v>
+        <v>22.35573735579971</v>
       </c>
       <c r="R5">
-        <v>-100.404596676316</v>
+        <v>-100.4045966763014</v>
       </c>
       <c r="S5">
-        <v>149.0428370121107</v>
+        <v>154.1405080943975</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9264,22 +9264,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9305424391864251</v>
+        <v>1.014509599815122</v>
       </c>
       <c r="O6">
-        <v>0.7848521014240256</v>
+        <v>0.7848521014239553</v>
       </c>
       <c r="P6">
-        <v>0.8463559336272938</v>
+        <v>0.8851496933448809</v>
       </c>
       <c r="Q6">
-        <v>21.20506831108284</v>
+        <v>22.35573735579971</v>
       </c>
       <c r="R6">
-        <v>-100.404596676316</v>
+        <v>-100.4045966763014</v>
       </c>
       <c r="S6">
-        <v>149.0428370121107</v>
+        <v>154.1405080943975</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9401,22 +9401,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9822913689209345</v>
+        <v>1.000074713609071</v>
       </c>
       <c r="O2">
-        <v>0.9517844802521986</v>
+        <v>0.9517844802528803</v>
       </c>
       <c r="P2">
-        <v>0.9681117308165348</v>
+        <v>0.9766104918879008</v>
       </c>
       <c r="Q2">
-        <v>28.33717433340531</v>
+        <v>28.40056801449168</v>
       </c>
       <c r="R2">
-        <v>-91.61401138281487</v>
+        <v>-91.61401138280999</v>
       </c>
       <c r="S2">
-        <v>149.9249909121744</v>
+        <v>150.8477380876126</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9430,58 +9430,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.351080255599717</v>
+        <v>1.116623666278724</v>
       </c>
       <c r="D3">
-        <v>1.276571043403532</v>
+        <v>1.10334851198063</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>15.60093098534571</v>
+        <v>12.89365948619057</v>
       </c>
       <c r="G3">
-        <v>14.74057271097422</v>
+        <v>12.7403712080398</v>
       </c>
       <c r="H3">
-        <v>0.04805503825641658</v>
+        <v>11.23203953398521</v>
       </c>
       <c r="I3">
-        <v>0.9614893340931525</v>
+        <v>-775.3427828698191</v>
       </c>
       <c r="J3">
-        <v>0.115351859494996</v>
+        <v>0.115351859519944</v>
       </c>
       <c r="K3">
-        <v>2.416397540717266</v>
+        <v>2.416397540768824</v>
       </c>
       <c r="L3">
-        <v>0.1153518594710898</v>
+        <v>0.1153518594657646</v>
       </c>
       <c r="M3">
-        <v>2.416397540675748</v>
+        <v>2.416397540684781</v>
       </c>
       <c r="N3">
-        <v>0.9305424391900116</v>
+        <v>1.014509599826325</v>
       </c>
       <c r="O3">
-        <v>0.7848521014139237</v>
+        <v>0.7848521014138538</v>
       </c>
       <c r="P3">
-        <v>0.8463559336115193</v>
+        <v>0.8851496933278682</v>
       </c>
       <c r="Q3">
-        <v>21.20506830981835</v>
+        <v>22.35573735506043</v>
       </c>
       <c r="R3">
-        <v>-100.4045966787053</v>
+        <v>-100.4045966786907</v>
       </c>
       <c r="S3">
-        <v>149.0428370113121</v>
+        <v>154.1405080944392</v>
       </c>
       <c r="T3">
-        <v>1.407892184491623</v>
+        <v>0.0225861296782449</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -9525,22 +9525,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9305424391873217</v>
+        <v>1.014509599817923</v>
       </c>
       <c r="O4">
-        <v>0.7848521014215</v>
+        <v>0.7848521014214299</v>
       </c>
       <c r="P4">
-        <v>0.8463559336233502</v>
+        <v>0.8851496933406277</v>
       </c>
       <c r="Q4">
-        <v>21.20506831076672</v>
+        <v>22.35573735561489</v>
       </c>
       <c r="R4">
-        <v>-100.4045966769133</v>
+        <v>-100.4045966768987</v>
       </c>
       <c r="S4">
-        <v>149.042837011911</v>
+        <v>154.1405080944079</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -9587,22 +9587,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.930542439186425</v>
+        <v>1.014509599815122</v>
       </c>
       <c r="O5">
-        <v>0.7848521014240255</v>
+        <v>0.7848521014239552</v>
       </c>
       <c r="P5">
-        <v>0.8463559336272938</v>
+        <v>0.8851496933448809</v>
       </c>
       <c r="Q5">
-        <v>21.20506831108284</v>
+        <v>22.35573735579971</v>
       </c>
       <c r="R5">
-        <v>-100.404596676316</v>
+        <v>-100.4045966763014</v>
       </c>
       <c r="S5">
-        <v>149.0428370121107</v>
+        <v>154.1405080943975</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9649,22 +9649,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9305424391864251</v>
+        <v>1.014509599815122</v>
       </c>
       <c r="O6">
-        <v>0.7848521014240256</v>
+        <v>0.7848521014239553</v>
       </c>
       <c r="P6">
-        <v>0.8463559336272938</v>
+        <v>0.8851496933448809</v>
       </c>
       <c r="Q6">
-        <v>21.20506831108284</v>
+        <v>22.35573735579971</v>
       </c>
       <c r="R6">
-        <v>-100.404596676316</v>
+        <v>-100.4045966763014</v>
       </c>
       <c r="S6">
-        <v>149.0428370121107</v>
+        <v>154.1405080943975</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -10538,22 +10538,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.046595068049951</v>
+        <v>1.04659506805</v>
       </c>
       <c r="O2">
-        <v>0.8909260930523819</v>
+        <v>0.8909260930523274</v>
       </c>
       <c r="P2">
-        <v>1.056652021165216</v>
+        <v>1.056652021165258</v>
       </c>
       <c r="Q2">
-        <v>25.1885020403398</v>
+        <v>25.18850204033653</v>
       </c>
       <c r="R2">
-        <v>-89.28600430314906</v>
+        <v>-89.28600430314991</v>
       </c>
       <c r="S2">
-        <v>155.0677071882993</v>
+        <v>155.0677071883017</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -10564,55 +10564,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.759944874248877</v>
+        <v>4.759944874248717</v>
       </c>
       <c r="D3">
-        <v>4.759944874248877</v>
+        <v>4.759944874248717</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>54.96310908950737</v>
+        <v>54.96310908950552</v>
       </c>
       <c r="G3">
-        <v>54.96310908950737</v>
+        <v>54.96310908950552</v>
       </c>
       <c r="H3">
-        <v>0.04239312320552924</v>
+        <v>5.852099171775197</v>
       </c>
       <c r="I3">
-        <v>0.892043986427</v>
+        <v>-775.3659126368779</v>
       </c>
       <c r="J3">
-        <v>0.1077319054063861</v>
+        <v>0.1077319054466534</v>
       </c>
       <c r="K3">
-        <v>2.308438694631209</v>
+        <v>2.308438694707467</v>
       </c>
       <c r="L3">
-        <v>0.1077319054131873</v>
+        <v>0.1077319054074683</v>
       </c>
       <c r="M3">
-        <v>2.308438694642881</v>
+        <v>2.308438694652887</v>
       </c>
       <c r="N3">
-        <v>0.9526279648020818</v>
+        <v>0.9526279648021448</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9526279648025192</v>
+        <v>0.9526279648025828</v>
       </c>
       <c r="Q3">
-        <v>-3.96298353817495E-12</v>
+        <v>-5.119148101385719E-12</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.9999999999899</v>
+        <v>-179.9999999999895</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -10656,22 +10656,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9526279647753109</v>
+        <v>0.9526279647753736</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526279648292907</v>
+        <v>0.9526279648293545</v>
       </c>
       <c r="Q4">
-        <v>1.415160203437286E-09</v>
+        <v>1.413988201231558E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999999985764</v>
+        <v>179.9999999985768</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -10715,22 +10715,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526279647663871</v>
+        <v>0.9526279647664497</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279648382145</v>
+        <v>0.9526279648382783</v>
       </c>
       <c r="Q5">
-        <v>1.888202904004318E-09</v>
+        <v>1.887018729033647E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999981034</v>
+        <v>179.9999999981038</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -10774,22 +10774,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.952627964766387</v>
+        <v>0.9526279647664497</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526279648382145</v>
+        <v>0.9526279648382783</v>
       </c>
       <c r="Q6">
-        <v>1.888209217495527E-09</v>
+        <v>1.88702122829016E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999981034</v>
+        <v>179.9999999981038</v>
       </c>
     </row>
   </sheetData>
